--- a/hello-github.xlsx
+++ b/hello-github.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\hello-github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C77ADA-EBCF-44FD-B92D-53F0F8EA1CFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E47272F-F788-4057-86CD-38D23EC8673D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t xml:space="preserve">hello </t>
+    <t>hello github</t>
   </si>
 </sst>
 </file>
@@ -63,8 +63,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -345,18 +348,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>